--- a/community_algae.xlsx
+++ b/community_algae.xlsx
@@ -8,69 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\PYTHON\Algal_bloom_SA\Community_algal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B4657177-3070-4114-8310-55436386ED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B1BC7A-AD0B-4A5A-ABE3-A25CE343C721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{1401B825-6645-4E50-A3C7-AFF2B2FB1CE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="community_algae" sheetId="1" r:id="rId1"/>
+    <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>CHLOROCOCCALES</t>
-  </si>
-  <si>
-    <t>COLONIAL &amp; FILAMENTOUS chlorophyceae &amp; charophyceae</t>
-  </si>
-  <si>
-    <t>FLAGELLATED unicellular chlorophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUGLENOPHYCEAE &amp; PRASINOPHYCEAE flagellates </t>
-  </si>
-  <si>
-    <t>CRYPTOPHYCEAE flagellates</t>
-  </si>
-  <si>
-    <t>DINOPHYCEAE flagellates</t>
-  </si>
-  <si>
-    <t>Subcount of Karenia spp</t>
-  </si>
-  <si>
-    <t>Other golden-brown chromophyte flagellates</t>
-  </si>
-  <si>
-    <t>BACILLARIOPHYCEAE (diatoms}</t>
-  </si>
-  <si>
-    <t>Solitary, colonial and filamentous blue greens (&gt; 3-5um)</t>
-  </si>
-  <si>
-    <t>Picoplankton (&lt;3-5um)</t>
-  </si>
-  <si>
-    <t>Zooplankton, rotifers, forams, protozoa</t>
-  </si>
-  <si>
-    <t>TOTAL PLANKTON</t>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
   <si>
     <t>Victor Harbor</t>
@@ -254,13 +231,66 @@
   </si>
   <si>
     <t>Southern Proof Range offshore, 34o24.8267  138o10.600</t>
+  </si>
+  <si>
+    <t>Chlorophytes</t>
+  </si>
+  <si>
+    <t>Euglenophytes &amp; Prasinophytes</t>
+  </si>
+  <si>
+    <t>Cryptophytes</t>
+  </si>
+  <si>
+    <t>Dinoflagellates</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Karenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spp subcount</t>
+    </r>
+  </si>
+  <si>
+    <t>Other Chromophytes</t>
+  </si>
+  <si>
+    <t>Diatoms</t>
+  </si>
+  <si>
+    <t>Cyanoprokaryota</t>
+  </si>
+  <si>
+    <t>Picoplankton</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total plankton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,315 +299,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -585,205 +323,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,74 +670,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE1F08D-5D27-4692-947F-C572398B6532}">
-  <dimension ref="A1:Q92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2">
         <v>-35.558520000000001</v>
@@ -1189,25 +753,25 @@
       <c r="C2">
         <v>138.62299999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>45738</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>25560</v>
       </c>
+      <c r="I2">
+        <v>25560</v>
+      </c>
       <c r="K2">
-        <v>25560</v>
-      </c>
-      <c r="M2">
         <v>560</v>
       </c>
-      <c r="Q2">
+      <c r="O2">
         <v>26120</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>-34.423819999999999</v>
@@ -1215,72 +779,72 @@
       <c r="C3">
         <v>137.92411999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>45792</v>
       </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>74</v>
+      </c>
       <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>37</v>
       </c>
-      <c r="I3">
-        <v>74</v>
-      </c>
-      <c r="J3">
-        <v>74</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="M3">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="O3">
-        <v>333</v>
-      </c>
-      <c r="Q3">
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>137.87817000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>45792</v>
       </c>
+      <c r="F4">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>185</v>
+      </c>
       <c r="H4">
-        <v>37</v>
+        <v>1481</v>
       </c>
       <c r="I4">
+        <v>481</v>
+      </c>
+      <c r="J4">
+        <v>259</v>
+      </c>
+      <c r="K4">
         <v>185</v>
       </c>
-      <c r="J4">
-        <v>1481</v>
-      </c>
-      <c r="K4">
-        <v>481</v>
-      </c>
-      <c r="L4">
-        <v>259</v>
-      </c>
       <c r="M4">
-        <v>185</v>
+        <v>1407</v>
       </c>
       <c r="O4">
-        <v>1407</v>
-      </c>
-      <c r="Q4">
         <v>3556</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-35.672089999999997</v>
@@ -1288,31 +852,31 @@
       <c r="C5">
         <v>137.61358000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>45800</v>
       </c>
-      <c r="J5">
+      <c r="H5">
         <v>167</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="K5">
-        <v>0</v>
+        <v>1278</v>
+      </c>
+      <c r="L5">
+        <v>167</v>
       </c>
       <c r="M5">
-        <v>1278</v>
-      </c>
-      <c r="N5">
-        <v>167</v>
+        <v>2333</v>
       </c>
       <c r="O5">
-        <v>2333</v>
-      </c>
-      <c r="Q5">
         <v>3944</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>-34.423819999999999</v>
@@ -1320,40 +884,40 @@
       <c r="C6">
         <v>137.92411999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>45801</v>
       </c>
+      <c r="F6">
+        <v>83</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
       <c r="H6">
-        <v>83</v>
+        <v>861</v>
       </c>
       <c r="I6">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J6">
-        <v>861</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>222</v>
-      </c>
-      <c r="L6">
+        <v>139</v>
+      </c>
+      <c r="M6">
+        <v>1178</v>
+      </c>
+      <c r="N6">
         <v>28</v>
       </c>
-      <c r="M6">
-        <v>139</v>
-      </c>
       <c r="O6">
-        <v>1178</v>
-      </c>
-      <c r="P6">
-        <v>28</v>
-      </c>
-      <c r="Q6">
         <v>3167</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-34.423819999999999</v>
@@ -1361,40 +925,40 @@
       <c r="C7">
         <v>137.92411999999999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>45806</v>
       </c>
+      <c r="G7">
+        <v>194</v>
+      </c>
+      <c r="H7">
+        <v>222</v>
+      </c>
       <c r="I7">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="J7">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="K7">
+        <v>806</v>
+      </c>
+      <c r="L7">
         <v>28</v>
       </c>
-      <c r="L7">
-        <v>56</v>
-      </c>
       <c r="M7">
-        <v>806</v>
+        <v>417</v>
       </c>
       <c r="N7">
         <v>28</v>
       </c>
       <c r="O7">
-        <v>417</v>
-      </c>
-      <c r="P7">
-        <v>28</v>
-      </c>
-      <c r="Q7">
         <v>1750</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>-34.423819999999999</v>
@@ -1402,34 +966,34 @@
       <c r="C8">
         <v>137.92411999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>45815</v>
       </c>
+      <c r="F8">
+        <v>194</v>
+      </c>
+      <c r="G8">
+        <v>167</v>
+      </c>
       <c r="H8">
-        <v>194</v>
+        <v>500</v>
       </c>
       <c r="I8">
-        <v>167</v>
-      </c>
-      <c r="J8">
-        <v>500</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>83</v>
+        <v>1083</v>
       </c>
       <c r="M8">
-        <v>1083</v>
+        <v>667</v>
       </c>
       <c r="O8">
-        <v>667</v>
-      </c>
-      <c r="Q8">
         <v>2611</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>-34.703580000000002</v>
@@ -1437,37 +1001,37 @@
       <c r="C9">
         <v>137.87817000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>45815</v>
       </c>
+      <c r="G9">
+        <v>333</v>
+      </c>
+      <c r="H9">
+        <v>1111</v>
+      </c>
       <c r="I9">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1111</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7222</v>
       </c>
       <c r="L9">
-        <v>56</v>
-      </c>
-      <c r="M9">
-        <v>7222</v>
+        <v>1167</v>
       </c>
       <c r="N9">
-        <v>1167</v>
-      </c>
-      <c r="P9">
-        <v>56</v>
-      </c>
-      <c r="Q9">
+        <v>56</v>
+      </c>
+      <c r="O9">
         <v>9944</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-34.893830000000001</v>
@@ -1475,40 +1039,40 @@
       <c r="C10">
         <v>138.49006</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>45830</v>
       </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
       <c r="G10">
-        <v>56</v>
+        <v>194</v>
+      </c>
+      <c r="H10">
+        <v>111</v>
       </c>
       <c r="I10">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="J10">
-        <v>111</v>
+        <v>917</v>
       </c>
       <c r="K10">
+        <v>139</v>
+      </c>
+      <c r="M10">
+        <v>1778</v>
+      </c>
+      <c r="N10">
         <v>28</v>
       </c>
-      <c r="L10">
-        <v>917</v>
-      </c>
-      <c r="M10">
-        <v>139</v>
-      </c>
       <c r="O10">
-        <v>1778</v>
-      </c>
-      <c r="P10">
-        <v>28</v>
-      </c>
-      <c r="Q10">
         <v>3222</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-34.802858999999998</v>
@@ -1516,28 +1080,28 @@
       <c r="C11">
         <v>138.531958</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>45837</v>
       </c>
-      <c r="J11">
+      <c r="H11">
         <v>222</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="M11">
         <v>250</v>
       </c>
-      <c r="N11">
-        <v>56</v>
-      </c>
-      <c r="Q11">
+      <c r="L11">
+        <v>56</v>
+      </c>
+      <c r="O11">
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>-34.804799000000003</v>
@@ -1545,28 +1109,28 @@
       <c r="C12">
         <v>138.540256</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>45837</v>
       </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
       <c r="I12">
-        <v>28</v>
-      </c>
-      <c r="J12">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>56</v>
-      </c>
-      <c r="Q12">
+        <v>56</v>
+      </c>
+      <c r="O12">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>-34.893830000000001</v>
@@ -1574,40 +1138,40 @@
       <c r="C13">
         <v>138.49006</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>45841</v>
       </c>
+      <c r="F13">
+        <v>333</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
       <c r="H13">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>56</v>
       </c>
       <c r="J13">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="K13">
-        <v>56</v>
-      </c>
-      <c r="L13">
-        <v>722</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>4000</v>
+      </c>
+      <c r="N13">
+        <v>28</v>
       </c>
       <c r="O13">
-        <v>4000</v>
-      </c>
-      <c r="P13">
-        <v>28</v>
-      </c>
-      <c r="Q13">
         <v>6583</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-34.876789000000002</v>
@@ -1615,43 +1179,43 @@
       <c r="C14">
         <v>138.488035</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>45841</v>
       </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>1389</v>
+      </c>
       <c r="G14">
-        <v>56</v>
+        <v>1111</v>
       </c>
       <c r="H14">
-        <v>1389</v>
+        <v>306</v>
       </c>
       <c r="I14">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>306</v>
+        <v>611</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>611</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>5333</v>
+      </c>
+      <c r="N14">
+        <v>56</v>
       </c>
       <c r="O14">
-        <v>5333</v>
-      </c>
-      <c r="P14">
-        <v>56</v>
-      </c>
-      <c r="Q14">
         <v>8889</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-34.877485999999998</v>
@@ -1659,28 +1223,28 @@
       <c r="C15">
         <v>138.49785399999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>45841</v>
       </c>
-      <c r="H15">
+      <c r="F15">
         <v>778</v>
       </c>
+      <c r="G15">
+        <v>278</v>
+      </c>
       <c r="I15">
-        <v>278</v>
-      </c>
-      <c r="K15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
       <c r="O15">
-        <v>1000</v>
-      </c>
-      <c r="Q15">
         <v>2056</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-34.852471000000001</v>
@@ -1688,37 +1252,37 @@
       <c r="C16">
         <v>138.498412</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>45841</v>
       </c>
+      <c r="F16">
+        <v>111</v>
+      </c>
+      <c r="G16">
+        <v>944</v>
+      </c>
       <c r="H16">
+        <v>333</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>111</v>
       </c>
-      <c r="I16">
-        <v>944</v>
-      </c>
-      <c r="J16">
-        <v>333</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>111</v>
+      <c r="M16">
+        <v>778</v>
+      </c>
+      <c r="N16">
+        <v>28</v>
       </c>
       <c r="O16">
-        <v>778</v>
-      </c>
-      <c r="P16">
-        <v>28</v>
-      </c>
-      <c r="Q16">
         <v>2306</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>-35.160139999999998</v>
@@ -1726,40 +1290,40 @@
       <c r="C17">
         <v>138.47193999999999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>45841</v>
       </c>
+      <c r="F17">
+        <v>389</v>
+      </c>
+      <c r="G17">
+        <v>111</v>
+      </c>
       <c r="H17">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="I17">
+        <v>83</v>
+      </c>
+      <c r="J17">
+        <v>167</v>
+      </c>
+      <c r="K17">
         <v>111</v>
       </c>
-      <c r="J17">
-        <v>417</v>
-      </c>
-      <c r="K17">
-        <v>83</v>
-      </c>
       <c r="L17">
+        <v>56</v>
+      </c>
+      <c r="M17">
         <v>167</v>
       </c>
-      <c r="M17">
-        <v>111</v>
-      </c>
-      <c r="N17">
-        <v>56</v>
-      </c>
       <c r="O17">
-        <v>167</v>
-      </c>
-      <c r="Q17">
         <v>1417</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>-35.152030000000003</v>
@@ -1767,37 +1331,37 @@
       <c r="C18">
         <v>138.47327999999999</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>45841</v>
       </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>111</v>
+      </c>
       <c r="H18">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I18">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="M18">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="O18">
-        <v>194</v>
-      </c>
-      <c r="Q18">
         <v>611</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>-34.423819999999999</v>
@@ -1805,34 +1369,34 @@
       <c r="C19">
         <v>137.92411999999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>45842</v>
       </c>
+      <c r="G19">
+        <v>278</v>
+      </c>
+      <c r="H19">
+        <v>889</v>
+      </c>
       <c r="I19">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="J19">
-        <v>889</v>
+        <v>167</v>
       </c>
       <c r="K19">
-        <v>444</v>
-      </c>
-      <c r="L19">
-        <v>167</v>
-      </c>
-      <c r="M19">
         <v>194</v>
       </c>
-      <c r="P19">
+      <c r="N19">
         <v>28</v>
       </c>
-      <c r="Q19">
+      <c r="O19">
         <v>1556</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>-34.274155</v>
@@ -1840,28 +1404,28 @@
       <c r="C20">
         <v>138.187037</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>45849</v>
       </c>
-      <c r="H20">
+      <c r="F20">
         <v>28</v>
       </c>
+      <c r="G20">
+        <v>28</v>
+      </c>
       <c r="I20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="M20">
         <v>528</v>
       </c>
-      <c r="Q20">
+      <c r="O20">
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>-34.791704000000003</v>
@@ -1869,40 +1433,40 @@
       <c r="C21">
         <v>138.553224</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>45851</v>
       </c>
+      <c r="F21">
+        <v>333</v>
+      </c>
+      <c r="G21">
+        <v>778</v>
+      </c>
       <c r="H21">
-        <v>333</v>
+        <v>1778</v>
       </c>
       <c r="I21">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="J21">
-        <v>1778</v>
+        <v>1056</v>
       </c>
       <c r="K21">
-        <v>389</v>
+        <v>6889</v>
       </c>
       <c r="L21">
-        <v>1056</v>
-      </c>
-      <c r="M21">
-        <v>6889</v>
+        <v>111</v>
       </c>
       <c r="N21">
-        <v>111</v>
-      </c>
-      <c r="P21">
         <v>222</v>
       </c>
-      <c r="Q21">
+      <c r="O21">
         <v>11167</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>-34.744259999999997</v>
@@ -1910,37 +1474,37 @@
       <c r="C22">
         <v>138.53462999999999</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>45856</v>
       </c>
+      <c r="F22">
+        <v>778</v>
+      </c>
+      <c r="G22">
+        <v>1778</v>
+      </c>
       <c r="H22">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="I22">
-        <v>1778</v>
+        <v>111</v>
       </c>
       <c r="J22">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="K22">
-        <v>111</v>
-      </c>
-      <c r="L22">
-        <v>611</v>
+        <v>1833</v>
       </c>
       <c r="M22">
-        <v>1833</v>
+        <v>722</v>
       </c>
       <c r="O22">
-        <v>722</v>
-      </c>
-      <c r="Q22">
         <v>6056</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>-34.773001000000001</v>
@@ -1948,40 +1512,40 @@
       <c r="C23">
         <v>138.48540299999999</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>45856</v>
       </c>
+      <c r="F23">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>412</v>
+      </c>
       <c r="H23">
-        <v>59</v>
+        <v>1235</v>
       </c>
       <c r="I23">
-        <v>412</v>
+        <v>882</v>
       </c>
       <c r="J23">
-        <v>1235</v>
+        <v>353</v>
       </c>
       <c r="K23">
-        <v>882</v>
-      </c>
-      <c r="L23">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="M23">
-        <v>176</v>
+        <v>235</v>
+      </c>
+      <c r="N23">
+        <v>118</v>
       </c>
       <c r="O23">
-        <v>235</v>
-      </c>
-      <c r="P23">
-        <v>118</v>
-      </c>
-      <c r="Q23">
         <v>2588</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>-34.755813000000003</v>
@@ -1989,40 +1553,40 @@
       <c r="C24">
         <v>138.516817</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>45856</v>
       </c>
+      <c r="F24">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>257</v>
+      </c>
       <c r="H24">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="I24">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="J24">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="K24">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="L24">
-        <v>143</v>
-      </c>
-      <c r="M24">
+        <v>28</v>
+      </c>
+      <c r="N24">
         <v>29</v>
       </c>
-      <c r="N24">
-        <v>28</v>
-      </c>
-      <c r="P24">
-        <v>29</v>
-      </c>
-      <c r="Q24">
+      <c r="O24">
         <v>857</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>-34.494169999999997</v>
@@ -2030,37 +1594,37 @@
       <c r="C25">
         <v>138.27999</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>45858</v>
       </c>
+      <c r="F25">
+        <v>389</v>
+      </c>
+      <c r="G25">
+        <v>167</v>
+      </c>
       <c r="H25">
-        <v>389</v>
+        <v>1444</v>
       </c>
       <c r="I25">
-        <v>167</v>
+        <v>1111</v>
       </c>
       <c r="J25">
-        <v>1444</v>
+        <v>222</v>
       </c>
       <c r="K25">
-        <v>1111</v>
-      </c>
-      <c r="L25">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="M25">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="O25">
-        <v>56</v>
-      </c>
-      <c r="Q25">
         <v>2722</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>-34.700049999999997</v>
@@ -2068,49 +1632,46 @@
       <c r="C26">
         <v>138.47494</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>45858</v>
       </c>
       <c r="E26">
-        <v>2444</v>
+        <v>2555</v>
+      </c>
+      <c r="F26">
+        <v>222</v>
       </c>
       <c r="G26">
         <v>111</v>
       </c>
       <c r="H26">
-        <v>222</v>
+        <v>1167</v>
       </c>
       <c r="I26">
-        <v>111</v>
+        <v>500</v>
       </c>
       <c r="J26">
-        <v>1167</v>
+        <v>772</v>
       </c>
       <c r="K26">
-        <v>500</v>
+        <v>4333</v>
       </c>
       <c r="L26">
-        <v>772</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>4333</v>
+        <v>13500</v>
       </c>
       <c r="N26">
         <v>56</v>
       </c>
       <c r="O26">
-        <v>13500</v>
-      </c>
-      <c r="P26">
-        <v>56</v>
-      </c>
-      <c r="Q26">
         <v>22722</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>-34.703029999999998</v>
@@ -2118,43 +1679,43 @@
       <c r="C27">
         <v>138.46861000000001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>45858</v>
       </c>
+      <c r="E27">
+        <v>111</v>
+      </c>
+      <c r="F27">
+        <v>778</v>
+      </c>
       <c r="G27">
-        <v>111</v>
+        <v>778</v>
       </c>
       <c r="H27">
-        <v>778</v>
+        <v>3000</v>
       </c>
       <c r="I27">
-        <v>778</v>
+        <v>1556</v>
       </c>
       <c r="J27">
-        <v>3000</v>
+        <v>2111</v>
       </c>
       <c r="K27">
-        <v>1556</v>
-      </c>
-      <c r="L27">
-        <v>2111</v>
+        <v>1111</v>
       </c>
       <c r="M27">
         <v>1111</v>
       </c>
+      <c r="N27">
+        <v>222</v>
+      </c>
       <c r="O27">
-        <v>1111</v>
-      </c>
-      <c r="P27">
-        <v>222</v>
-      </c>
-      <c r="Q27">
         <v>9222</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>-34.889229999999998</v>
@@ -2162,34 +1723,34 @@
       <c r="C28">
         <v>137.44828999999999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>45863</v>
       </c>
-      <c r="H28">
+      <c r="F28">
         <v>14</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
       <c r="K28">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M28">
-        <v>125</v>
-      </c>
-      <c r="N28">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="O28">
-        <v>375</v>
-      </c>
-      <c r="Q28">
         <v>625</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>-34.745739999999998</v>
@@ -2197,34 +1758,34 @@
       <c r="C29">
         <v>138.53829999999999</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>45866</v>
       </c>
+      <c r="F29">
+        <v>167</v>
+      </c>
+      <c r="G29">
+        <v>56</v>
+      </c>
       <c r="H29">
-        <v>167</v>
+        <v>778</v>
       </c>
       <c r="I29">
-        <v>56</v>
-      </c>
-      <c r="J29">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="M29">
         <v>1000</v>
       </c>
-      <c r="P29">
+      <c r="N29">
         <v>111</v>
       </c>
-      <c r="Q29">
+      <c r="O29">
         <v>2111</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>-34.773001000000001</v>
@@ -2232,34 +1793,34 @@
       <c r="C30">
         <v>138.48540299999999</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>45866</v>
       </c>
+      <c r="G30">
+        <v>222</v>
+      </c>
+      <c r="H30">
+        <v>1944</v>
+      </c>
       <c r="I30">
-        <v>222</v>
+        <v>1500</v>
       </c>
       <c r="J30">
-        <v>1944</v>
+        <v>667</v>
       </c>
       <c r="K30">
-        <v>1500</v>
-      </c>
-      <c r="L30">
-        <v>667</v>
-      </c>
-      <c r="M30">
         <v>3917</v>
       </c>
-      <c r="P30">
+      <c r="N30">
         <v>111</v>
       </c>
-      <c r="Q30">
+      <c r="O30">
         <v>6861</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>-34.781149999999997</v>
@@ -2267,37 +1828,37 @@
       <c r="C31">
         <v>138.51647</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>45866</v>
       </c>
+      <c r="F31">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>278</v>
+      </c>
       <c r="H31">
-        <v>56</v>
+        <v>1389</v>
       </c>
       <c r="I31">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="J31">
-        <v>1389</v>
+        <v>722</v>
       </c>
       <c r="K31">
-        <v>556</v>
-      </c>
-      <c r="L31">
-        <v>722</v>
-      </c>
-      <c r="M31">
         <v>2222</v>
       </c>
-      <c r="P31">
-        <v>56</v>
-      </c>
-      <c r="Q31">
+      <c r="N31">
+        <v>56</v>
+      </c>
+      <c r="O31">
         <v>4722</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>-34.759534000000002</v>
@@ -2305,34 +1866,34 @@
       <c r="C32">
         <v>138.51026200000001</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>45866</v>
       </c>
+      <c r="G32">
+        <v>278</v>
+      </c>
+      <c r="H32">
+        <v>944</v>
+      </c>
       <c r="I32">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="J32">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="K32">
-        <v>444</v>
-      </c>
-      <c r="L32">
-        <v>333</v>
-      </c>
-      <c r="M32">
         <v>3722</v>
       </c>
-      <c r="P32">
+      <c r="N32">
         <v>167</v>
       </c>
-      <c r="Q32">
+      <c r="O32">
         <v>5444</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>-34.755813000000003</v>
@@ -2340,34 +1901,34 @@
       <c r="C33">
         <v>138.516817</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>45866</v>
       </c>
+      <c r="G33">
+        <v>167</v>
+      </c>
+      <c r="H33">
+        <v>1333</v>
+      </c>
       <c r="I33">
+        <v>833</v>
+      </c>
+      <c r="J33">
+        <v>333</v>
+      </c>
+      <c r="K33">
+        <v>4333</v>
+      </c>
+      <c r="N33">
         <v>167</v>
       </c>
-      <c r="J33">
-        <v>1333</v>
-      </c>
-      <c r="K33">
-        <v>833</v>
-      </c>
-      <c r="L33">
-        <v>333</v>
-      </c>
-      <c r="M33">
-        <v>4333</v>
-      </c>
-      <c r="P33">
-        <v>167</v>
-      </c>
-      <c r="Q33">
+      <c r="O33">
         <v>6333</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>-33.224420000000002</v>
@@ -2375,37 +1936,40 @@
       <c r="C34">
         <v>137.48194699999999</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>45871</v>
       </c>
-      <c r="H34">
-        <v>83</v>
-      </c>
-      <c r="J34">
-        <v>83</v>
-      </c>
-      <c r="K34">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>83.333333333333314</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>83.333333333333314</v>
+      </c>
+      <c r="I34" s="4">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>111</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="O34">
+      <c r="J34" s="4">
+        <v>111.11111111111111</v>
+      </c>
+      <c r="K34" s="4">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
         <v>250</v>
       </c>
-      <c r="P34">
-        <v>28</v>
-      </c>
-      <c r="Q34">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="N34" s="4">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="O34" s="4">
+        <v>583.33333333333326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>-33.239246999999999</v>
@@ -2413,34 +1977,38 @@
       <c r="C35">
         <v>137.471722</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>45871</v>
       </c>
-      <c r="H35">
-        <v>37</v>
-      </c>
-      <c r="J35">
-        <v>56</v>
-      </c>
-      <c r="K35">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <v>37.037037037037038</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>55.55555555555555</v>
+      </c>
+      <c r="I35" s="4">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>19</v>
-      </c>
-      <c r="M35">
-        <v>56</v>
-      </c>
-      <c r="O35">
-        <v>111</v>
-      </c>
-      <c r="Q35">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J35" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="K35" s="4">
+        <v>55.55555555555555</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>111.1111111111111</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4">
+        <v>277.77777777777777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B36">
         <v>-33.257523999999997</v>
@@ -2448,34 +2016,38 @@
       <c r="C36">
         <v>137.46965399999999</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>45871</v>
       </c>
-      <c r="I36">
-        <v>19</v>
-      </c>
-      <c r="J36">
-        <v>19</v>
-      </c>
-      <c r="K36">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="H36" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>37</v>
-      </c>
-      <c r="M36">
-        <v>93</v>
-      </c>
-      <c r="O36">
-        <v>130</v>
-      </c>
-      <c r="Q36">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J36" s="4">
+        <v>37.037037037037038</v>
+      </c>
+      <c r="K36" s="4">
+        <v>92.592592592592595</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>129.62962962962962</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4">
+        <v>296.2962962962963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B37">
         <v>-33.260413</v>
@@ -2483,34 +2055,38 @@
       <c r="C37">
         <v>137.47871499999999</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>45871</v>
       </c>
-      <c r="J37">
-        <v>37</v>
-      </c>
-      <c r="K37">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>37.037037037037038</v>
+      </c>
+      <c r="I37" s="4">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>56</v>
-      </c>
-      <c r="M37">
-        <v>37</v>
-      </c>
-      <c r="N37">
-        <v>19</v>
-      </c>
-      <c r="O37">
-        <v>56</v>
-      </c>
-      <c r="Q37">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J37" s="4">
+        <v>55.55555555555555</v>
+      </c>
+      <c r="K37" s="4">
+        <v>37.037037037037038</v>
+      </c>
+      <c r="L37" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="M37" s="4">
+        <v>55.55555555555555</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4">
+        <v>203.7037037037037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>-33.244988999999997</v>
@@ -2518,37 +2094,40 @@
       <c r="C38">
         <v>137.482709</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>45871</v>
       </c>
-      <c r="H38">
-        <v>19</v>
-      </c>
-      <c r="J38">
-        <v>38</v>
-      </c>
-      <c r="K38">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>18.867924528301888</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>37.735849056603776</v>
+      </c>
+      <c r="I38" s="4">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>57</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>19</v>
-      </c>
-      <c r="O38">
-        <v>75</v>
-      </c>
-      <c r="Q38">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J38" s="4">
+        <v>56.603773584905653</v>
+      </c>
+      <c r="K38" s="4">
+        <v>18.867924528301888</v>
+      </c>
+      <c r="L38" s="4">
+        <v>18.867924528301888</v>
+      </c>
+      <c r="M38" s="4">
+        <v>75.471698113207552</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
+        <v>226.41509433962267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B39">
         <v>-33.230874</v>
@@ -2556,37 +2135,40 @@
       <c r="C39">
         <v>137.49722299999999</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>45871</v>
       </c>
-      <c r="I39">
-        <v>19</v>
-      </c>
-      <c r="J39">
-        <v>56</v>
-      </c>
-      <c r="K39">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="H39" s="4">
+        <v>55.55555555555555</v>
+      </c>
+      <c r="I39" s="4">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>37</v>
-      </c>
-      <c r="N39">
-        <v>19</v>
-      </c>
-      <c r="O39">
-        <v>19</v>
-      </c>
-      <c r="P39">
-        <v>19</v>
-      </c>
-      <c r="Q39">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J39" s="4">
+        <v>37.037037037037038</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="M39" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="N39" s="4">
+        <v>18.518518518518519</v>
+      </c>
+      <c r="O39" s="4">
+        <v>166.66666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>-34.567259999999997</v>
@@ -2594,40 +2176,40 @@
       <c r="C40">
         <v>137.49447000000001</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>45872</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>19</v>
       </c>
       <c r="H40">
         <v>19</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>56</v>
+      </c>
+      <c r="L40">
         <v>19</v>
       </c>
-      <c r="J40">
-        <v>19</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="M40">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="N40">
         <v>19</v>
       </c>
       <c r="O40">
-        <v>167</v>
-      </c>
-      <c r="P40">
-        <v>19</v>
-      </c>
-      <c r="Q40">
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>-33.181420000000003</v>
@@ -2635,40 +2217,40 @@
       <c r="C41">
         <v>138.01680999999999</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>45873</v>
       </c>
+      <c r="F41">
+        <v>167</v>
+      </c>
+      <c r="G41">
+        <v>722</v>
+      </c>
       <c r="H41">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="I41">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="M41">
-        <v>444</v>
+        <v>83</v>
+      </c>
+      <c r="N41">
+        <v>83</v>
       </c>
       <c r="O41">
-        <v>83</v>
-      </c>
-      <c r="P41">
-        <v>83</v>
-      </c>
-      <c r="Q41">
         <v>2083</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>-33.103079999999999</v>
@@ -2676,43 +2258,43 @@
       <c r="C42">
         <v>138.02359999999999</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>45873</v>
+      </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>74</v>
       </c>
       <c r="H42">
         <v>19</v>
       </c>
       <c r="I42">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>19</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="L42">
         <v>19</v>
       </c>
       <c r="M42">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="N42">
         <v>19</v>
       </c>
       <c r="O42">
-        <v>130</v>
-      </c>
-      <c r="P42">
-        <v>19</v>
-      </c>
-      <c r="Q42">
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>-33.024749999999997</v>
@@ -2720,40 +2302,40 @@
       <c r="C43">
         <v>137.99793</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>45873</v>
       </c>
+      <c r="F43">
+        <v>93</v>
+      </c>
+      <c r="G43">
+        <v>241</v>
+      </c>
       <c r="H43">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>93</v>
       </c>
-      <c r="I43">
-        <v>241</v>
-      </c>
-      <c r="J43">
-        <v>74</v>
-      </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="M43">
-        <v>296</v>
+        <v>167</v>
+      </c>
+      <c r="N43">
+        <v>19</v>
       </c>
       <c r="O43">
-        <v>167</v>
-      </c>
-      <c r="P43">
-        <v>19</v>
-      </c>
-      <c r="Q43">
         <v>981</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>-33.017960000000002</v>
@@ -2761,40 +2343,42 @@
       <c r="C44">
         <v>137.60166000000001</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>45876</v>
       </c>
-      <c r="H44">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
         <v>42</v>
       </c>
-      <c r="I44">
+      <c r="G44" s="4">
         <v>28</v>
       </c>
-      <c r="J44">
+      <c r="H44" s="4">
         <v>111</v>
       </c>
-      <c r="K44">
+      <c r="I44" s="4">
         <v>0</v>
       </c>
-      <c r="L44">
+      <c r="J44" s="4">
         <v>139</v>
       </c>
-      <c r="M44">
+      <c r="K44" s="4">
         <v>125</v>
       </c>
-      <c r="N44">
+      <c r="L44" s="4">
         <v>14</v>
       </c>
-      <c r="O44">
+      <c r="M44" s="4">
         <v>167</v>
       </c>
-      <c r="Q44">
+      <c r="N44" s="4"/>
+      <c r="O44" s="4">
         <v>625</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>-34.444301000000003</v>
@@ -2802,43 +2386,43 @@
       <c r="C45">
         <v>138.19254900000001</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>45877</v>
       </c>
+      <c r="F45">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>56</v>
+      </c>
       <c r="H45">
+        <v>315</v>
+      </c>
+      <c r="I45">
+        <v>259</v>
+      </c>
+      <c r="J45">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>148</v>
+      </c>
+      <c r="L45">
         <v>37</v>
       </c>
-      <c r="I45">
-        <v>56</v>
-      </c>
-      <c r="J45">
-        <v>315</v>
-      </c>
-      <c r="K45">
-        <v>259</v>
-      </c>
-      <c r="L45">
-        <v>74</v>
-      </c>
       <c r="M45">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="N45">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O45">
-        <v>37</v>
-      </c>
-      <c r="P45">
-        <v>19</v>
-      </c>
-      <c r="Q45">
         <v>722</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>49</v>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B46">
         <v>-34.812190000000001</v>
@@ -2846,37 +2430,37 @@
       <c r="C46">
         <v>138.53881999999999</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>45877</v>
       </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
       <c r="H46">
+        <v>111</v>
+      </c>
+      <c r="I46">
+        <v>42</v>
+      </c>
+      <c r="J46">
+        <v>69</v>
+      </c>
+      <c r="K46">
+        <v>83</v>
+      </c>
+      <c r="L46">
+        <v>125</v>
+      </c>
+      <c r="N46">
         <v>14</v>
       </c>
-      <c r="J46">
-        <v>111</v>
-      </c>
-      <c r="K46">
-        <v>42</v>
-      </c>
-      <c r="L46">
-        <v>69</v>
-      </c>
-      <c r="M46">
-        <v>83</v>
-      </c>
-      <c r="N46">
-        <v>125</v>
-      </c>
-      <c r="P46">
-        <v>14</v>
-      </c>
-      <c r="Q46">
+      <c r="O46">
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>-35.136479999999999</v>
@@ -2884,28 +2468,28 @@
       <c r="C47">
         <v>138.46857</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>45877</v>
       </c>
+      <c r="F47">
+        <v>130</v>
+      </c>
       <c r="H47">
-        <v>130</v>
-      </c>
-      <c r="J47">
         <v>278</v>
       </c>
+      <c r="I47">
+        <v>185</v>
+      </c>
       <c r="K47">
-        <v>185</v>
-      </c>
-      <c r="M47">
         <v>111</v>
       </c>
-      <c r="Q47">
+      <c r="O47">
         <v>519</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>-34.289369999999998</v>
@@ -2913,37 +2497,38 @@
       <c r="C48">
         <v>138.01242999999999</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>45877</v>
       </c>
+      <c r="F48">
+        <v>333</v>
+      </c>
+      <c r="G48" s="2"/>
       <c r="H48">
-        <v>333</v>
+        <v>6889</v>
+      </c>
+      <c r="I48">
+        <v>6111</v>
       </c>
       <c r="J48">
-        <v>6889</v>
+        <v>111</v>
       </c>
       <c r="K48">
-        <v>6111</v>
+        <v>5111</v>
       </c>
       <c r="L48">
         <v>111</v>
       </c>
-      <c r="M48">
-        <v>5111</v>
-      </c>
       <c r="N48">
-        <v>111</v>
-      </c>
-      <c r="P48">
         <v>28</v>
       </c>
-      <c r="Q48">
+      <c r="O48">
         <v>12583</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>-34.444301000000003</v>
@@ -2951,40 +2536,40 @@
       <c r="C49">
         <v>138.19254900000001</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>45880</v>
       </c>
+      <c r="F49">
+        <v>250</v>
+      </c>
+      <c r="G49">
+        <v>126</v>
+      </c>
       <c r="H49">
-        <v>250</v>
+        <v>2813</v>
       </c>
       <c r="I49">
-        <v>126</v>
+        <v>2500</v>
       </c>
       <c r="J49">
-        <v>2813</v>
+        <v>375</v>
       </c>
       <c r="K49">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="L49">
-        <v>375</v>
+        <v>63</v>
       </c>
       <c r="M49">
-        <v>875</v>
-      </c>
-      <c r="N49">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="O49">
-        <v>188</v>
-      </c>
-      <c r="Q49">
         <v>4688</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>-34.507817000000003</v>
@@ -2992,31 +2577,31 @@
       <c r="C50">
         <v>138.274338</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>45880</v>
       </c>
+      <c r="G50">
+        <v>278</v>
+      </c>
+      <c r="H50">
+        <v>2056</v>
+      </c>
       <c r="I50">
-        <v>278</v>
+        <v>1444</v>
       </c>
       <c r="J50">
-        <v>2056</v>
+        <v>500</v>
       </c>
       <c r="K50">
-        <v>1444</v>
-      </c>
-      <c r="L50">
-        <v>500</v>
-      </c>
-      <c r="M50">
         <v>3056</v>
       </c>
-      <c r="Q50">
+      <c r="O50">
         <v>5889</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>-34.492910999999999</v>
@@ -3024,37 +2609,37 @@
       <c r="C51">
         <v>138.26936799999999</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>45880</v>
       </c>
+      <c r="G51">
+        <v>167</v>
+      </c>
+      <c r="H51">
+        <v>2222</v>
+      </c>
       <c r="I51">
-        <v>167</v>
+        <v>1611</v>
       </c>
       <c r="J51">
-        <v>2222</v>
+        <v>667</v>
       </c>
       <c r="K51">
-        <v>1611</v>
-      </c>
-      <c r="L51">
         <v>667</v>
       </c>
       <c r="M51">
-        <v>667</v>
+        <v>13000</v>
+      </c>
+      <c r="N51">
+        <v>111</v>
       </c>
       <c r="O51">
-        <v>13000</v>
-      </c>
-      <c r="P51">
-        <v>111</v>
-      </c>
-      <c r="Q51">
         <v>17722</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>-38.04683</v>
@@ -3062,34 +2647,34 @@
       <c r="C52">
         <v>140.79902999999999</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>45880</v>
       </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>56</v>
+      </c>
       <c r="H52">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I52">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>56</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>56</v>
-      </c>
-      <c r="M52">
         <v>306</v>
       </c>
-      <c r="Q52">
+      <c r="O52">
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>-38.059890000000003</v>
@@ -3097,34 +2682,34 @@
       <c r="C53">
         <v>140.75377</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>45880</v>
       </c>
+      <c r="G53">
+        <v>1444</v>
+      </c>
+      <c r="H53">
+        <v>389</v>
+      </c>
       <c r="I53">
-        <v>1444</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L53">
-        <v>167</v>
-      </c>
-      <c r="M53">
-        <v>2000</v>
-      </c>
-      <c r="N53">
         <v>778</v>
       </c>
-      <c r="Q53">
+      <c r="O53">
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B54">
         <v>-38.059890000000003</v>
@@ -3132,37 +2717,37 @@
       <c r="C54">
         <v>140.75377</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>45880</v>
       </c>
+      <c r="F54">
+        <v>111</v>
+      </c>
+      <c r="G54">
+        <v>1111</v>
+      </c>
       <c r="H54">
+        <v>56</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>111</v>
       </c>
-      <c r="I54">
-        <v>1111</v>
-      </c>
-      <c r="J54">
-        <v>56</v>
-      </c>
       <c r="K54">
-        <v>0</v>
+        <v>2889</v>
       </c>
       <c r="L54">
-        <v>111</v>
-      </c>
-      <c r="M54">
-        <v>2889</v>
-      </c>
-      <c r="N54">
         <v>611</v>
       </c>
-      <c r="Q54">
+      <c r="O54">
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B55">
         <v>-34.893830000000001</v>
@@ -3170,28 +2755,28 @@
       <c r="C55">
         <v>138.49006</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>45881</v>
       </c>
-      <c r="J55">
+      <c r="H55">
         <v>187222</v>
       </c>
+      <c r="I55">
+        <v>184000</v>
+      </c>
       <c r="K55">
-        <v>184000</v>
-      </c>
-      <c r="M55">
         <v>167</v>
       </c>
-      <c r="P55">
+      <c r="N55">
         <v>222</v>
       </c>
-      <c r="Q55">
+      <c r="O55">
         <v>187611</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B56">
         <v>-34.89132</v>
@@ -3199,40 +2784,40 @@
       <c r="C56">
         <v>138.49034900000001</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>45881</v>
       </c>
+      <c r="F56">
+        <v>1778</v>
+      </c>
+      <c r="G56">
+        <v>278</v>
+      </c>
       <c r="H56">
-        <v>1778</v>
+        <v>4111</v>
       </c>
       <c r="I56">
-        <v>278</v>
+        <v>3222</v>
       </c>
       <c r="J56">
-        <v>4111</v>
+        <v>2222</v>
       </c>
       <c r="K56">
-        <v>3222</v>
+        <v>111</v>
       </c>
       <c r="L56">
-        <v>2222</v>
-      </c>
-      <c r="M56">
+        <v>56</v>
+      </c>
+      <c r="N56">
         <v>111</v>
       </c>
-      <c r="N56">
-        <v>56</v>
-      </c>
-      <c r="P56">
-        <v>111</v>
-      </c>
-      <c r="Q56">
+      <c r="O56">
         <v>8667</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>-34.774355999999997</v>
@@ -3240,40 +2825,40 @@
       <c r="C57">
         <v>138.50988899999999</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>45883</v>
       </c>
+      <c r="F57">
+        <v>111</v>
+      </c>
+      <c r="G57">
+        <v>389</v>
+      </c>
       <c r="H57">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="I57">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>11333</v>
       </c>
       <c r="L57">
-        <v>167</v>
-      </c>
-      <c r="M57">
-        <v>11333</v>
+        <v>1167</v>
       </c>
       <c r="N57">
-        <v>1167</v>
-      </c>
-      <c r="P57">
         <v>333</v>
       </c>
-      <c r="Q57">
+      <c r="O57">
         <v>13778</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>-34.778519000000003</v>
@@ -3281,40 +2866,40 @@
       <c r="C58">
         <v>138.509951</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>45883</v>
       </c>
+      <c r="F58">
+        <v>333</v>
+      </c>
+      <c r="G58">
+        <v>167</v>
+      </c>
       <c r="H58">
-        <v>333</v>
+        <v>1833</v>
       </c>
       <c r="I58">
+        <v>1556</v>
+      </c>
+      <c r="J58">
         <v>167</v>
       </c>
-      <c r="J58">
-        <v>1833</v>
-      </c>
       <c r="K58">
-        <v>1556</v>
+        <v>444</v>
       </c>
       <c r="L58">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>444</v>
-      </c>
-      <c r="N58">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="O58">
-        <v>111</v>
-      </c>
-      <c r="Q58">
         <v>3111</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>-34.777065999999998</v>
@@ -3322,37 +2907,37 @@
       <c r="C59">
         <v>138.509164</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>45883</v>
       </c>
+      <c r="H59">
+        <v>1333</v>
+      </c>
+      <c r="I59">
+        <v>278</v>
+      </c>
       <c r="J59">
-        <v>1333</v>
+        <v>222</v>
       </c>
       <c r="K59">
-        <v>278</v>
+        <v>1389</v>
       </c>
       <c r="L59">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="M59">
-        <v>1389</v>
+        <v>111</v>
       </c>
       <c r="N59">
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="O59">
-        <v>111</v>
-      </c>
-      <c r="P59">
-        <v>500</v>
-      </c>
-      <c r="Q59">
         <v>3722</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>-34.778677999999999</v>
@@ -3360,34 +2945,34 @@
       <c r="C60">
         <v>138.510752</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>45883</v>
       </c>
+      <c r="G60">
+        <v>111</v>
+      </c>
+      <c r="H60">
+        <v>3333</v>
+      </c>
       <c r="I60">
+        <v>2000</v>
+      </c>
+      <c r="K60">
+        <v>14333</v>
+      </c>
+      <c r="L60">
+        <v>889</v>
+      </c>
+      <c r="N60">
         <v>111</v>
       </c>
-      <c r="J60">
-        <v>3333</v>
-      </c>
-      <c r="K60">
-        <v>2000</v>
-      </c>
-      <c r="M60">
-        <v>14333</v>
-      </c>
-      <c r="N60">
-        <v>889</v>
-      </c>
-      <c r="P60">
-        <v>111</v>
-      </c>
-      <c r="Q60">
+      <c r="O60">
         <v>18778</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B61">
         <v>-34.778416</v>
@@ -3395,37 +2980,37 @@
       <c r="C61">
         <v>138.51265699999999</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>45883</v>
       </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>139</v>
+      </c>
       <c r="I61">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="J61">
         <v>139</v>
       </c>
       <c r="K61">
-        <v>83</v>
+        <v>917</v>
       </c>
       <c r="L61">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>917</v>
-      </c>
-      <c r="N61">
         <v>28</v>
       </c>
       <c r="O61">
-        <v>28</v>
-      </c>
-      <c r="Q61">
         <v>1278</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B62">
         <v>-34.778754999999997</v>
@@ -3433,34 +3018,34 @@
       <c r="C62">
         <v>138.513384</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>45883</v>
       </c>
+      <c r="H62">
+        <v>1778</v>
+      </c>
+      <c r="I62">
+        <v>1389</v>
+      </c>
       <c r="J62">
-        <v>1778</v>
+        <v>111</v>
       </c>
       <c r="K62">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="L62">
-        <v>111</v>
-      </c>
-      <c r="M62">
-        <v>1667</v>
+        <v>167</v>
       </c>
       <c r="N62">
-        <v>167</v>
-      </c>
-      <c r="P62">
         <v>556</v>
       </c>
-      <c r="Q62">
+      <c r="O62">
         <v>4278</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>-34.423819999999999</v>
@@ -3468,43 +3053,43 @@
       <c r="C63">
         <v>137.92411999999999</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>45885</v>
       </c>
+      <c r="F63">
+        <v>74</v>
+      </c>
+      <c r="G63">
+        <v>111</v>
+      </c>
       <c r="H63">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="I63">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>185</v>
       </c>
       <c r="K63">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="L63">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="M63">
-        <v>444</v>
+        <v>37</v>
       </c>
       <c r="N63">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O63">
-        <v>37</v>
-      </c>
-      <c r="P63">
-        <v>19</v>
-      </c>
-      <c r="Q63">
         <v>1296</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B64">
         <v>-34.289369999999998</v>
@@ -3512,37 +3097,37 @@
       <c r="C64">
         <v>138.01242999999999</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>45885</v>
       </c>
+      <c r="F64">
+        <v>176</v>
+      </c>
+      <c r="G64">
+        <v>59</v>
+      </c>
       <c r="H64">
-        <v>176</v>
+        <v>824</v>
       </c>
       <c r="I64">
+        <v>520</v>
+      </c>
+      <c r="J64">
+        <v>235</v>
+      </c>
+      <c r="K64">
+        <v>882</v>
+      </c>
+      <c r="L64">
         <v>59</v>
       </c>
-      <c r="J64">
-        <v>824</v>
-      </c>
-      <c r="K64">
-        <v>520</v>
-      </c>
-      <c r="L64">
-        <v>235</v>
-      </c>
-      <c r="M64">
-        <v>882</v>
-      </c>
-      <c r="N64">
-        <v>59</v>
-      </c>
-      <c r="Q64">
+      <c r="O64">
         <v>2235</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>-34.289369999999998</v>
@@ -3550,37 +3135,37 @@
       <c r="C65">
         <v>138.01242999999999</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>45891</v>
       </c>
+      <c r="F65">
+        <v>56</v>
+      </c>
       <c r="H65">
-        <v>56</v>
+        <v>8111</v>
+      </c>
+      <c r="I65">
+        <v>7778</v>
       </c>
       <c r="J65">
-        <v>8111</v>
+        <v>667</v>
       </c>
       <c r="K65">
-        <v>7778</v>
-      </c>
-      <c r="L65">
-        <v>667</v>
+        <v>1611</v>
       </c>
       <c r="M65">
-        <v>1611</v>
+        <v>167</v>
+      </c>
+      <c r="N65">
+        <v>222</v>
       </c>
       <c r="O65">
-        <v>167</v>
-      </c>
-      <c r="P65">
-        <v>222</v>
-      </c>
-      <c r="Q65">
         <v>10833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>-34.744259999999997</v>
@@ -3588,37 +3173,37 @@
       <c r="C66">
         <v>138.53462999999999</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>45893</v>
       </c>
+      <c r="F66">
+        <v>444</v>
+      </c>
       <c r="H66">
-        <v>444</v>
+        <v>3778</v>
+      </c>
+      <c r="I66">
+        <v>2111</v>
       </c>
       <c r="J66">
-        <v>3778</v>
+        <v>667</v>
       </c>
       <c r="K66">
-        <v>2111</v>
+        <v>3000</v>
       </c>
       <c r="L66">
-        <v>667</v>
-      </c>
-      <c r="M66">
-        <v>3000</v>
+        <v>333</v>
       </c>
       <c r="N66">
-        <v>333</v>
-      </c>
-      <c r="P66">
         <v>111</v>
       </c>
-      <c r="Q66">
+      <c r="O66">
         <v>8333</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>-34.810209</v>
@@ -3626,34 +3211,34 @@
       <c r="C67">
         <v>138.54621</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>45893</v>
       </c>
+      <c r="H67">
+        <v>2556</v>
+      </c>
+      <c r="I67">
+        <v>1889</v>
+      </c>
       <c r="J67">
-        <v>2556</v>
+        <v>7667</v>
       </c>
       <c r="K67">
-        <v>1889</v>
+        <v>1222</v>
       </c>
       <c r="L67">
-        <v>7667</v>
-      </c>
-      <c r="M67">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="N67">
-        <v>556</v>
-      </c>
-      <c r="P67">
         <v>222</v>
       </c>
-      <c r="Q67">
+      <c r="O67">
         <v>12222</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>-34.759534000000002</v>
@@ -3661,31 +3246,31 @@
       <c r="C68">
         <v>138.51026200000001</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>45893</v>
       </c>
+      <c r="F68">
+        <v>56</v>
+      </c>
       <c r="H68">
-        <v>56</v>
+        <v>5333</v>
+      </c>
+      <c r="I68">
+        <v>4667</v>
       </c>
       <c r="J68">
-        <v>5333</v>
+        <v>278</v>
       </c>
       <c r="K68">
-        <v>4667</v>
-      </c>
-      <c r="L68">
-        <v>278</v>
-      </c>
-      <c r="M68">
         <v>111</v>
       </c>
-      <c r="Q68">
+      <c r="O68">
         <v>5778</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B69">
         <v>-34.289369999999998</v>
@@ -3693,37 +3278,37 @@
       <c r="C69">
         <v>138.01242999999999</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>45898</v>
       </c>
+      <c r="F69">
+        <v>833</v>
+      </c>
+      <c r="G69">
+        <v>56</v>
+      </c>
       <c r="H69">
-        <v>833</v>
+        <v>5111</v>
       </c>
       <c r="I69">
-        <v>56</v>
+        <v>4778</v>
       </c>
       <c r="J69">
-        <v>5111</v>
+        <v>333</v>
       </c>
       <c r="K69">
-        <v>4778</v>
-      </c>
-      <c r="L69">
-        <v>333</v>
-      </c>
-      <c r="M69">
         <v>556</v>
       </c>
-      <c r="P69">
+      <c r="N69">
         <v>556</v>
       </c>
-      <c r="Q69">
+      <c r="O69">
         <v>7444</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B70">
         <v>-37.446449999999999</v>
@@ -3731,34 +3316,34 @@
       <c r="C70">
         <v>139.99202</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>45902</v>
       </c>
-      <c r="J70">
+      <c r="H70">
         <v>2889</v>
       </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
       <c r="K70">
-        <v>0</v>
+        <v>94000</v>
+      </c>
+      <c r="L70">
+        <v>667</v>
       </c>
       <c r="M70">
-        <v>94000</v>
+        <v>1240000</v>
       </c>
       <c r="N70">
-        <v>667</v>
+        <v>111</v>
       </c>
       <c r="O70">
-        <v>1240000</v>
-      </c>
-      <c r="P70">
-        <v>111</v>
-      </c>
-      <c r="Q70">
         <v>1337667</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>-34.744259999999997</v>
@@ -3766,37 +3351,37 @@
       <c r="C71">
         <v>138.53462999999999</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>45903</v>
       </c>
+      <c r="F71">
+        <v>1722</v>
+      </c>
+      <c r="G71">
+        <v>167</v>
+      </c>
       <c r="H71">
-        <v>1722</v>
+        <v>26833</v>
       </c>
       <c r="I71">
+        <v>24500</v>
+      </c>
+      <c r="J71">
         <v>167</v>
       </c>
-      <c r="J71">
-        <v>26833</v>
-      </c>
       <c r="K71">
-        <v>24500</v>
-      </c>
-      <c r="L71">
-        <v>167</v>
-      </c>
-      <c r="M71">
         <v>556</v>
       </c>
-      <c r="P71">
+      <c r="N71">
         <v>333</v>
       </c>
-      <c r="Q71">
+      <c r="O71">
         <v>29778</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>-34.93365</v>
@@ -3804,40 +3389,40 @@
       <c r="C72">
         <v>137.35296</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>45905</v>
       </c>
+      <c r="E72">
+        <v>111</v>
+      </c>
+      <c r="F72">
+        <v>167</v>
+      </c>
       <c r="G72">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="H72">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>56</v>
+      </c>
+      <c r="K72">
+        <v>19</v>
+      </c>
+      <c r="M72">
         <v>28</v>
       </c>
-      <c r="J72">
-        <v>56</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>56</v>
-      </c>
-      <c r="M72">
-        <v>19</v>
-      </c>
       <c r="O72">
-        <v>28</v>
-      </c>
-      <c r="Q72">
         <v>463</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B73">
         <v>-34.93365</v>
@@ -3845,40 +3430,40 @@
       <c r="C73">
         <v>137.35296</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>45905</v>
       </c>
+      <c r="E73">
+        <v>56</v>
+      </c>
+      <c r="F73">
+        <v>222</v>
+      </c>
       <c r="G73">
         <v>56</v>
       </c>
       <c r="H73">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="I73">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O73">
-        <v>278</v>
-      </c>
-      <c r="Q73">
         <v>792</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B74">
         <v>-34.289369999999998</v>
@@ -3886,37 +3471,37 @@
       <c r="C74">
         <v>138.01242999999999</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>45906</v>
       </c>
+      <c r="F74">
+        <v>361</v>
+      </c>
       <c r="H74">
-        <v>361</v>
+        <v>1194</v>
+      </c>
+      <c r="I74">
+        <v>833</v>
       </c>
       <c r="J74">
-        <v>1194</v>
+        <v>417</v>
       </c>
       <c r="K74">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="L74">
-        <v>417</v>
-      </c>
-      <c r="M74">
-        <v>667</v>
+        <v>56</v>
       </c>
       <c r="N74">
-        <v>56</v>
-      </c>
-      <c r="P74">
         <v>83</v>
       </c>
-      <c r="Q74">
+      <c r="O74">
         <v>2778</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B75">
         <v>-34.681815</v>
@@ -3924,34 +3509,34 @@
       <c r="C75">
         <v>138.42975300000001</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>45909</v>
+      </c>
+      <c r="F75">
+        <v>9500</v>
       </c>
       <c r="H75">
         <v>9500</v>
       </c>
+      <c r="I75">
+        <v>6500</v>
+      </c>
       <c r="J75">
-        <v>9500</v>
+        <v>167</v>
       </c>
       <c r="K75">
-        <v>6500</v>
-      </c>
-      <c r="L75">
+        <v>1056</v>
+      </c>
+      <c r="N75">
         <v>167</v>
       </c>
-      <c r="M75">
-        <v>1056</v>
-      </c>
-      <c r="P75">
-        <v>167</v>
-      </c>
-      <c r="Q75">
+      <c r="O75">
         <v>20389</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B76">
         <v>-34.714106999999998</v>
@@ -3959,34 +3544,34 @@
       <c r="C76">
         <v>138.427032</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>45909</v>
       </c>
+      <c r="F76">
+        <v>333</v>
+      </c>
+      <c r="G76">
+        <v>56</v>
+      </c>
       <c r="H76">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="I76">
-        <v>56</v>
+        <v>556</v>
       </c>
       <c r="J76">
-        <v>944</v>
+        <v>56</v>
       </c>
       <c r="K76">
-        <v>556</v>
-      </c>
-      <c r="L76">
-        <v>56</v>
-      </c>
-      <c r="M76">
         <v>167</v>
       </c>
-      <c r="Q76">
+      <c r="O76">
         <v>1556</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B77">
         <v>-34.731737000000003</v>
@@ -3994,34 +3579,34 @@
       <c r="C77">
         <v>138.44375500000001</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>45909</v>
       </c>
+      <c r="F77">
+        <v>833</v>
+      </c>
       <c r="H77">
-        <v>833</v>
+        <v>1444</v>
+      </c>
+      <c r="I77">
+        <v>889</v>
       </c>
       <c r="J77">
-        <v>1444</v>
+        <v>167</v>
       </c>
       <c r="K77">
-        <v>889</v>
-      </c>
-      <c r="L77">
-        <v>167</v>
-      </c>
-      <c r="M77">
         <v>111</v>
       </c>
-      <c r="P77">
-        <v>56</v>
-      </c>
-      <c r="Q77">
+      <c r="N77">
+        <v>56</v>
+      </c>
+      <c r="O77">
         <v>2611</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B78">
         <v>-34.733525</v>
@@ -4029,31 +3614,31 @@
       <c r="C78">
         <v>138.48838000000001</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>45909</v>
       </c>
+      <c r="F78">
+        <v>2222</v>
+      </c>
       <c r="H78">
-        <v>2222</v>
-      </c>
-      <c r="J78">
         <v>38667</v>
       </c>
+      <c r="I78">
+        <v>30333</v>
+      </c>
       <c r="K78">
-        <v>30333</v>
-      </c>
-      <c r="M78">
         <v>4444</v>
       </c>
-      <c r="P78">
+      <c r="N78">
         <v>111</v>
       </c>
-      <c r="Q78">
+      <c r="O78">
         <v>45444</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B79">
         <v>-34.237800999999997</v>
@@ -4061,37 +3646,37 @@
       <c r="C79">
         <v>138.01289700000001</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>45912</v>
       </c>
+      <c r="F79">
+        <v>111</v>
+      </c>
       <c r="H79">
-        <v>111</v>
+        <v>1074</v>
+      </c>
+      <c r="I79">
+        <v>815</v>
       </c>
       <c r="J79">
-        <v>1074</v>
+        <v>630</v>
       </c>
       <c r="K79">
-        <v>815</v>
+        <v>704</v>
       </c>
       <c r="L79">
-        <v>630</v>
-      </c>
-      <c r="M79">
-        <v>704</v>
+        <v>37</v>
       </c>
       <c r="N79">
-        <v>37</v>
-      </c>
-      <c r="P79">
         <v>370</v>
       </c>
-      <c r="Q79">
+      <c r="O79">
         <v>2929</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B80">
         <v>-35.084499999999998</v>
@@ -4099,31 +3684,31 @@
       <c r="C80">
         <v>137.74932999999999</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>45912</v>
       </c>
+      <c r="F80">
+        <v>833</v>
+      </c>
       <c r="H80">
-        <v>833</v>
+        <v>944</v>
+      </c>
+      <c r="I80">
+        <v>667</v>
       </c>
       <c r="J80">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="K80">
         <v>667</v>
       </c>
-      <c r="L80">
-        <v>333</v>
-      </c>
-      <c r="M80">
-        <v>667</v>
-      </c>
-      <c r="Q80">
+      <c r="O80">
         <v>2778</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B81">
         <v>-35.152030000000003</v>
@@ -4131,37 +3716,37 @@
       <c r="C81">
         <v>138.47327999999999</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>45912</v>
       </c>
+      <c r="F81">
+        <v>56</v>
+      </c>
       <c r="H81">
-        <v>56</v>
+        <v>222</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
       </c>
       <c r="J81">
         <v>222</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L81">
         <v>222</v>
       </c>
-      <c r="M81">
-        <v>1000</v>
-      </c>
       <c r="N81">
-        <v>222</v>
-      </c>
-      <c r="P81">
-        <v>56</v>
-      </c>
-      <c r="Q81">
+        <v>56</v>
+      </c>
+      <c r="O81">
         <v>1778</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B82">
         <v>-35.152030000000003</v>
@@ -4169,37 +3754,37 @@
       <c r="C82">
         <v>138.47327999999999</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>45912</v>
       </c>
+      <c r="F82">
+        <v>222</v>
+      </c>
       <c r="H82">
-        <v>222</v>
+        <v>111</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L82">
-        <v>333</v>
-      </c>
-      <c r="M82">
-        <v>1500</v>
+        <v>56</v>
       </c>
       <c r="N82">
-        <v>56</v>
-      </c>
-      <c r="P82">
         <v>167</v>
       </c>
-      <c r="Q82">
+      <c r="O82">
         <v>2389</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B83">
         <v>-33.927239999999998</v>
@@ -4207,37 +3792,37 @@
       <c r="C83">
         <v>137.61905999999999</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>45913</v>
       </c>
+      <c r="F83">
+        <v>647</v>
+      </c>
+      <c r="G83">
+        <v>176</v>
+      </c>
       <c r="H83">
-        <v>647</v>
+        <v>59</v>
       </c>
       <c r="I83">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
         <v>118</v>
       </c>
       <c r="M83">
-        <v>118</v>
+        <v>471</v>
       </c>
       <c r="O83">
-        <v>471</v>
-      </c>
-      <c r="Q83">
         <v>1588</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B84">
         <v>-34.289369999999998</v>
@@ -4245,37 +3830,37 @@
       <c r="C84">
         <v>138.01242999999999</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>45913</v>
       </c>
+      <c r="F84">
+        <v>500</v>
+      </c>
       <c r="H84">
-        <v>500</v>
+        <v>2167</v>
+      </c>
+      <c r="I84">
+        <v>1556</v>
       </c>
       <c r="J84">
-        <v>2167</v>
+        <v>278</v>
       </c>
       <c r="K84">
-        <v>1556</v>
+        <v>889</v>
       </c>
       <c r="L84">
-        <v>278</v>
-      </c>
-      <c r="M84">
-        <v>889</v>
+        <v>56</v>
       </c>
       <c r="N84">
-        <v>56</v>
-      </c>
-      <c r="P84">
         <v>28</v>
       </c>
-      <c r="Q84">
+      <c r="O84">
         <v>3917</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B85">
         <v>-34.074730000000002</v>
@@ -4283,37 +3868,37 @@
       <c r="C85">
         <v>137.54074</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>45915</v>
       </c>
+      <c r="E85">
+        <v>389</v>
+      </c>
       <c r="G85">
+        <v>167</v>
+      </c>
+      <c r="H85">
+        <v>167</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>389</v>
       </c>
-      <c r="I85">
-        <v>167</v>
-      </c>
-      <c r="J85">
-        <v>167</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
       <c r="L85">
-        <v>389</v>
-      </c>
-      <c r="N85">
-        <v>56</v>
+        <v>56</v>
+      </c>
+      <c r="M85">
+        <v>29000</v>
       </c>
       <c r="O85">
-        <v>29000</v>
-      </c>
-      <c r="Q85">
         <v>30167</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B86">
         <v>-34.438363000000003</v>
@@ -4321,34 +3906,34 @@
       <c r="C86">
         <v>138.22989200000001</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>45915</v>
       </c>
+      <c r="F86">
+        <v>500</v>
+      </c>
       <c r="H86">
-        <v>500</v>
+        <v>2722</v>
+      </c>
+      <c r="I86">
+        <v>1556</v>
       </c>
       <c r="J86">
-        <v>2722</v>
+        <v>111</v>
       </c>
       <c r="K86">
-        <v>1556</v>
+        <v>278</v>
       </c>
       <c r="L86">
-        <v>111</v>
-      </c>
-      <c r="M86">
-        <v>278</v>
-      </c>
-      <c r="N86">
-        <v>56</v>
-      </c>
-      <c r="Q86">
+        <v>56</v>
+      </c>
+      <c r="O86">
         <v>3667</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B87">
         <v>-34.413778000000001</v>
@@ -4356,34 +3941,34 @@
       <c r="C87">
         <v>138.16933299999999</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>45915</v>
       </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
       <c r="H87">
-        <v>18</v>
+        <v>4444</v>
+      </c>
+      <c r="I87">
+        <v>3333</v>
       </c>
       <c r="J87">
-        <v>4444</v>
+        <v>444</v>
       </c>
       <c r="K87">
-        <v>3333</v>
+        <v>222</v>
       </c>
       <c r="L87">
-        <v>444</v>
-      </c>
-      <c r="M87">
-        <v>222</v>
-      </c>
-      <c r="N87">
         <v>4889</v>
       </c>
-      <c r="Q87">
+      <c r="O87">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B88">
         <v>-34.289369999999998</v>
@@ -4391,37 +3976,37 @@
       <c r="C88">
         <v>138.01242999999999</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>45919</v>
       </c>
+      <c r="E88">
+        <v>56</v>
+      </c>
+      <c r="F88">
+        <v>32500</v>
+      </c>
       <c r="G88">
         <v>56</v>
       </c>
       <c r="H88">
-        <v>32500</v>
+        <v>2056</v>
       </c>
       <c r="I88">
-        <v>56</v>
+        <v>611</v>
       </c>
       <c r="J88">
-        <v>2056</v>
+        <v>222</v>
       </c>
       <c r="K88">
-        <v>611</v>
-      </c>
-      <c r="L88">
-        <v>222</v>
-      </c>
-      <c r="M88">
         <v>556</v>
       </c>
-      <c r="Q88">
+      <c r="O88">
         <v>35444</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B89">
         <v>-34.744259999999997</v>
@@ -4429,40 +4014,40 @@
       <c r="C89">
         <v>138.53462999999999</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>45921</v>
       </c>
+      <c r="F89">
+        <v>444</v>
+      </c>
+      <c r="G89">
+        <v>111</v>
+      </c>
       <c r="H89">
-        <v>444</v>
+        <v>54000</v>
       </c>
       <c r="I89">
-        <v>111</v>
+        <v>45000</v>
       </c>
       <c r="J89">
-        <v>54000</v>
+        <v>167</v>
       </c>
       <c r="K89">
-        <v>45000</v>
+        <v>2722</v>
       </c>
       <c r="L89">
-        <v>167</v>
-      </c>
-      <c r="M89">
-        <v>2722</v>
+        <v>222</v>
       </c>
       <c r="N89">
-        <v>222</v>
-      </c>
-      <c r="P89">
-        <v>56</v>
-      </c>
-      <c r="Q89">
+        <v>56</v>
+      </c>
+      <c r="O89">
         <v>57722</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B90">
         <v>-34.745739999999998</v>
@@ -4470,43 +4055,43 @@
       <c r="C90">
         <v>138.53829999999999</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>45924</v>
       </c>
+      <c r="F90">
+        <v>1556</v>
+      </c>
+      <c r="G90">
+        <v>1444</v>
+      </c>
       <c r="H90">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="I90">
-        <v>1444</v>
+        <v>944</v>
       </c>
       <c r="J90">
-        <v>3111</v>
+        <v>556</v>
       </c>
       <c r="K90">
-        <v>944</v>
+        <v>1889</v>
       </c>
       <c r="L90">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="M90">
-        <v>1889</v>
+        <v>500</v>
       </c>
       <c r="N90">
         <v>56</v>
       </c>
       <c r="O90">
-        <v>500</v>
-      </c>
-      <c r="P90">
-        <v>56</v>
-      </c>
-      <c r="Q90">
         <v>9167</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B91">
         <v>-34.289369999999998</v>
@@ -4514,34 +4099,34 @@
       <c r="C91">
         <v>138.01242999999999</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>45927</v>
       </c>
+      <c r="F91">
+        <v>778</v>
+      </c>
       <c r="H91">
-        <v>778</v>
+        <v>2667</v>
+      </c>
+      <c r="I91">
+        <v>667</v>
       </c>
       <c r="J91">
-        <v>2667</v>
+        <v>56</v>
       </c>
       <c r="K91">
-        <v>667</v>
-      </c>
-      <c r="L91">
-        <v>56</v>
-      </c>
-      <c r="M91">
         <v>1333</v>
       </c>
-      <c r="P91">
+      <c r="N91">
         <v>19</v>
       </c>
-      <c r="Q91">
+      <c r="O91">
         <v>4952</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B92">
         <v>-34.289369999999998</v>
@@ -4549,28 +4134,28 @@
       <c r="C92">
         <v>138.01242999999999</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>45933</v>
       </c>
+      <c r="F92">
+        <v>167</v>
+      </c>
       <c r="H92">
-        <v>167</v>
+        <v>6667</v>
+      </c>
+      <c r="I92">
+        <v>4500</v>
       </c>
       <c r="J92">
-        <v>6667</v>
+        <v>56</v>
       </c>
       <c r="K92">
-        <v>4500</v>
-      </c>
-      <c r="L92">
-        <v>56</v>
-      </c>
-      <c r="M92">
         <v>1056</v>
       </c>
-      <c r="P92">
+      <c r="N92">
         <v>889</v>
       </c>
-      <c r="Q92">
+      <c r="O92">
         <v>8833</v>
       </c>
     </row>

--- a/community_algae.xlsx
+++ b/community_algae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\PYTHON\Algal_bloom_SA\Community_algal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B1BC7A-AD0B-4A5A-ABE3-A25CE343C721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE61C5-C0C4-4A36-82F6-ED24B7DBB4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Victor Harbor</t>
   </si>
   <si>
@@ -284,6 +278,12 @@
   </si>
   <si>
     <t>Total plankton</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,51 +701,51 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>-35.558520000000001</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>-34.423819999999999</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>137.87817000000001</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>-35.672089999999997</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>-34.423819999999999</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>-34.423819999999999</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>-34.423819999999999</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>-34.703580000000002</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>-34.893830000000001</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>-34.802858999999998</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>-34.804799000000003</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>-34.893830000000001</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>-34.876789000000002</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>-34.877485999999998</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>-34.852471000000001</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>-35.160139999999998</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>-35.152030000000003</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>-34.423819999999999</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>-34.274155</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>-34.791704000000003</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>-34.744259999999997</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>-34.773001000000001</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>-34.755813000000003</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>-34.494169999999997</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>-34.700049999999997</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>-34.703029999999998</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>-34.889229999999998</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>-34.745739999999998</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>-34.773001000000001</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>-34.781149999999997</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>-34.759534000000002</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>-34.755813000000003</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>-33.224420000000002</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>-33.239246999999999</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>-33.257523999999997</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <v>-33.260413</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>-33.244988999999997</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>-33.230874</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>-34.567259999999997</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41">
         <v>-33.181420000000003</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>-33.103079999999999</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>-33.024749999999997</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>-33.017960000000002</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>-34.444301000000003</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>-34.812190000000001</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>-35.136479999999999</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>-34.289369999999998</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>-34.444301000000003</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>-34.507817000000003</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>-34.492910999999999</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>-38.04683</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>-38.059890000000003</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54">
         <v>-38.059890000000003</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>-34.893830000000001</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>-34.89132</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>-34.774355999999997</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>-34.778519000000003</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>-34.777065999999998</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60">
         <v>-34.778677999999999</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B61">
         <v>-34.778416</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62">
         <v>-34.778754999999997</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>-34.423819999999999</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64">
         <v>-34.289369999999998</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>-34.289369999999998</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <v>-34.744259999999997</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B67">
         <v>-34.810209</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68">
         <v>-34.759534000000002</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>-34.289369999999998</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B70">
         <v>-37.446449999999999</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71">
         <v>-34.744259999999997</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72">
         <v>-34.93365</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73">
         <v>-34.93365</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B74">
         <v>-34.289369999999998</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>-34.681815</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>-34.714106999999998</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>-34.731737000000003</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B78">
         <v>-34.733525</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B79">
         <v>-34.237800999999997</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>-35.084499999999998</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>-35.152030000000003</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>-35.152030000000003</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83">
         <v>-33.927239999999998</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B84">
         <v>-34.289369999999998</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>-34.074730000000002</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B86">
         <v>-34.438363000000003</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B87">
         <v>-34.413778000000001</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B88">
         <v>-34.289369999999998</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B89">
         <v>-34.744259999999997</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B90">
         <v>-34.745739999999998</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91">
         <v>-34.289369999999998</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B92">
         <v>-34.289369999999998</v>

--- a/community_algae.xlsx
+++ b/community_algae.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\PYTHON\Algal_bloom_SA\Community_algal_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1675510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE61C5-C0C4-4A36-82F6-ED24B7DBB4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC208DA4-6839-4804-A125-FA4278222F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Sheaoak Flat</t>
-  </si>
-  <si>
-    <t> -34.70358</t>
   </si>
   <si>
     <t>Brownlow Beach, Kangaroo Island</t>
@@ -674,7 +671,7 @@
   <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,46 +698,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -808,8 +805,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+      <c r="B4" s="3">
+        <v>-34.703580000000002</v>
       </c>
       <c r="C4">
         <v>137.87817000000001</v>
@@ -844,7 +841,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>-35.672089999999997</v>
@@ -1031,7 +1028,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>-34.893830000000001</v>
@@ -1072,7 +1069,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>-34.802858999999998</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>-34.804799000000003</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>-34.893830000000001</v>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>-34.876789000000002</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>-34.877485999999998</v>
@@ -1244,7 +1241,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>-34.852471000000001</v>
@@ -1282,7 +1279,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>-35.160139999999998</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>-35.152030000000003</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>-34.274155</v>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>-34.791704000000003</v>
@@ -1466,7 +1463,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>-34.744259999999997</v>
@@ -1504,7 +1501,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>-34.773001000000001</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>-34.755813000000003</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>-34.494169999999997</v>
@@ -1624,7 +1621,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>-34.700049999999997</v>
@@ -1671,7 +1668,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>-34.703029999999998</v>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>-34.889229999999998</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>-34.745739999999998</v>
@@ -1785,7 +1782,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>-34.773001000000001</v>
@@ -1820,7 +1817,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>-34.781149999999997</v>
@@ -1858,7 +1855,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>-34.759534000000002</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>-34.755813000000003</v>
@@ -1928,7 +1925,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>-33.224420000000002</v>
@@ -1969,7 +1966,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>-33.239246999999999</v>
@@ -2008,7 +2005,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>-33.257523999999997</v>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>-33.260413</v>
@@ -2086,7 +2083,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>-33.244988999999997</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>-33.230874</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>-34.567259999999997</v>
@@ -2209,7 +2206,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>-33.181420000000003</v>
@@ -2250,7 +2247,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>-33.103079999999999</v>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>-33.024749999999997</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>-33.017960000000002</v>
@@ -2378,7 +2375,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>-34.444301000000003</v>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>-34.812190000000001</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>-35.136479999999999</v>
@@ -2489,7 +2486,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>-34.289369999999998</v>
@@ -2528,7 +2525,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <v>-34.444301000000003</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>-34.507817000000003</v>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>-34.492910999999999</v>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>-38.04683</v>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>-38.059890000000003</v>
@@ -2709,7 +2706,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <v>-38.059890000000003</v>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55">
         <v>-34.893830000000001</v>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56">
         <v>-34.89132</v>
@@ -2817,7 +2814,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57">
         <v>-34.774355999999997</v>
@@ -2858,7 +2855,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58">
         <v>-34.778519000000003</v>
@@ -2899,7 +2896,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>-34.777065999999998</v>
@@ -2937,7 +2934,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>-34.778677999999999</v>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61">
         <v>-34.778416</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62">
         <v>-34.778754999999997</v>
@@ -3089,7 +3086,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>-34.289369999999998</v>
@@ -3127,7 +3124,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65">
         <v>-34.289369999999998</v>
@@ -3165,7 +3162,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66">
         <v>-34.744259999999997</v>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>-34.810209</v>
@@ -3238,7 +3235,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68">
         <v>-34.759534000000002</v>
@@ -3270,7 +3267,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>-34.289369999999998</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70">
         <v>-37.446449999999999</v>
@@ -3343,7 +3340,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>-34.744259999999997</v>
@@ -3381,7 +3378,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>-34.93365</v>
@@ -3422,7 +3419,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>-34.93365</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>-34.289369999999998</v>
@@ -3501,7 +3498,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>-34.681815</v>
@@ -3536,7 +3533,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>-34.714106999999998</v>
@@ -3571,7 +3568,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77">
         <v>-34.731737000000003</v>
@@ -3606,7 +3603,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>-34.733525</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79">
         <v>-34.237800999999997</v>
@@ -3676,7 +3673,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>-35.084499999999998</v>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>-35.152030000000003</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>-35.152030000000003</v>
@@ -3784,7 +3781,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83">
         <v>-33.927239999999998</v>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84">
         <v>-34.289369999999998</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85">
         <v>-34.074730000000002</v>
@@ -3898,7 +3895,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86">
         <v>-34.438363000000003</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B87">
         <v>-34.413778000000001</v>
@@ -3968,7 +3965,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88">
         <v>-34.289369999999998</v>
@@ -4006,7 +4003,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89">
         <v>-34.744259999999997</v>
@@ -4047,7 +4044,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90">
         <v>-34.745739999999998</v>
@@ -4091,7 +4088,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91">
         <v>-34.289369999999998</v>
@@ -4126,7 +4123,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92">
         <v>-34.289369999999998</v>
